--- a/Original_Excel_Files/BV.xlsx
+++ b/Original_Excel_Files/BV.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F895A52-C3CD-483E-A256-41616459E787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E747B4A0-953E-4C83-B2F3-D6E9A20BEAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="401">
   <si>
     <t>BV4612 .M6</t>
   </si>
@@ -1218,6 +1218,9 @@
   </si>
   <si>
     <t>Yr.</t>
+  </si>
+  <si>
+    <t>Title</t>
   </si>
 </sst>
 </file>
@@ -1698,7 +1701,7 @@
   <dimension ref="A1:G348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1715,6 +1718,9 @@
       </c>
       <c r="B1" s="16" t="s">
         <v>399</v>
+      </c>
+      <c r="C1" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
